--- a/data/pca/factorExposure/factorExposure_2015-11-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-11-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01714217811926954</v>
+        <v>-0.01384472424748431</v>
       </c>
       <c r="C2">
-        <v>-0.03477957008258954</v>
+        <v>-0.0330996417192396</v>
       </c>
       <c r="D2">
-        <v>0.08825423294212012</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1224423613489827</v>
+      </c>
+      <c r="E2">
+        <v>0.06919293092563415</v>
+      </c>
+      <c r="F2">
+        <v>-0.02449744924734638</v>
+      </c>
+      <c r="G2">
+        <v>0.06960530110114276</v>
+      </c>
+      <c r="H2">
+        <v>0.09897275623245073</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01855672103322988</v>
+        <v>-0.01082101566757725</v>
       </c>
       <c r="C3">
-        <v>-0.05241077004305036</v>
+        <v>-0.03761218964037499</v>
       </c>
       <c r="D3">
-        <v>0.1221671410794075</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07391439541748594</v>
+      </c>
+      <c r="E3">
+        <v>0.04655067236782721</v>
+      </c>
+      <c r="F3">
+        <v>-0.04259598323399028</v>
+      </c>
+      <c r="G3">
+        <v>0.09786614526016593</v>
+      </c>
+      <c r="H3">
+        <v>0.01089541584967091</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05477853876217635</v>
+        <v>-0.05305830815778358</v>
       </c>
       <c r="C4">
-        <v>-0.0388721383750333</v>
+        <v>-0.06346144046332095</v>
       </c>
       <c r="D4">
-        <v>0.1270655112472622</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1453694199392254</v>
+      </c>
+      <c r="E4">
+        <v>0.05341402859729152</v>
+      </c>
+      <c r="F4">
+        <v>-0.02037221444031099</v>
+      </c>
+      <c r="G4">
+        <v>-0.03809449737664405</v>
+      </c>
+      <c r="H4">
+        <v>-0.0186592512912205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04372305129809446</v>
+        <v>-0.03929863115400033</v>
       </c>
       <c r="C6">
-        <v>-0.009211947478652347</v>
+        <v>-0.028428519715026</v>
       </c>
       <c r="D6">
-        <v>0.133834474415757</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1327212916913801</v>
+      </c>
+      <c r="E6">
+        <v>0.03048334833681405</v>
+      </c>
+      <c r="F6">
+        <v>-0.01758230186427312</v>
+      </c>
+      <c r="G6">
+        <v>0.01002245404041519</v>
+      </c>
+      <c r="H6">
+        <v>0.02040734632457322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02237618947485247</v>
+        <v>-0.01392490496183256</v>
       </c>
       <c r="C7">
-        <v>-0.01936781647051565</v>
+        <v>-0.03135855734660052</v>
       </c>
       <c r="D7">
-        <v>0.0959223645012644</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09476918197510559</v>
+      </c>
+      <c r="E7">
+        <v>0.03117236843399314</v>
+      </c>
+      <c r="F7">
+        <v>-0.01955393824661047</v>
+      </c>
+      <c r="G7">
+        <v>-0.003956406503634373</v>
+      </c>
+      <c r="H7">
+        <v>0.117166055344019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01120039682778099</v>
+        <v>-0.006516383635215449</v>
       </c>
       <c r="C8">
-        <v>-0.03008056535095572</v>
+        <v>-0.03753125284146601</v>
       </c>
       <c r="D8">
-        <v>0.05418311902957653</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.07169503586281978</v>
+      </c>
+      <c r="E8">
+        <v>0.03518015896538298</v>
+      </c>
+      <c r="F8">
+        <v>-0.04203352898870202</v>
+      </c>
+      <c r="G8">
+        <v>0.01328344479274911</v>
+      </c>
+      <c r="H8">
+        <v>0.04690485161837443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04465391964363381</v>
+        <v>-0.04180216076549</v>
       </c>
       <c r="C9">
-        <v>-0.03911956466106063</v>
+        <v>-0.05961959387597125</v>
       </c>
       <c r="D9">
-        <v>0.1113457757202687</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1230825780473818</v>
+      </c>
+      <c r="E9">
+        <v>0.03786043858948495</v>
+      </c>
+      <c r="F9">
+        <v>-0.00271612426279134</v>
+      </c>
+      <c r="G9">
+        <v>-0.02788494051738219</v>
+      </c>
+      <c r="H9">
+        <v>0.00896004352082886</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.09286190134728882</v>
+        <v>-0.140278577360256</v>
       </c>
       <c r="C10">
-        <v>0.1948489502209545</v>
+        <v>0.1863419199417446</v>
       </c>
       <c r="D10">
-        <v>-0.0002620412219628325</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.001741424284844259</v>
+      </c>
+      <c r="E10">
+        <v>0.04371253899097372</v>
+      </c>
+      <c r="F10">
+        <v>-0.02312617735785194</v>
+      </c>
+      <c r="G10">
+        <v>-0.03410779071014846</v>
+      </c>
+      <c r="H10">
+        <v>-0.004444302461351446</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03443531106727254</v>
+        <v>-0.02763364694977848</v>
       </c>
       <c r="C11">
-        <v>-0.0394502185573464</v>
+        <v>-0.04477840150006799</v>
       </c>
       <c r="D11">
-        <v>0.05688371249149865</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05764418242526068</v>
+      </c>
+      <c r="E11">
+        <v>-0.004340273086519862</v>
+      </c>
+      <c r="F11">
+        <v>-0.001018940899046006</v>
+      </c>
+      <c r="G11">
+        <v>0.0002540346828939152</v>
+      </c>
+      <c r="H11">
+        <v>0.04973801448438086</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04117016804472319</v>
+        <v>-0.03303767896467236</v>
       </c>
       <c r="C12">
-        <v>-0.03991183390530068</v>
+        <v>-0.04606209257688733</v>
       </c>
       <c r="D12">
-        <v>0.05931838665232164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05708284779734684</v>
+      </c>
+      <c r="E12">
+        <v>0.002815065922778103</v>
+      </c>
+      <c r="F12">
+        <v>0.006574972695917009</v>
+      </c>
+      <c r="G12">
+        <v>7.328935340879838e-05</v>
+      </c>
+      <c r="H12">
+        <v>0.06168518261329137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01895410333279595</v>
+        <v>-0.01772258958495293</v>
       </c>
       <c r="C13">
-        <v>-0.03196236800267199</v>
+        <v>-0.03798717254161781</v>
       </c>
       <c r="D13">
-        <v>0.1234771533378422</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1441568757508001</v>
+      </c>
+      <c r="E13">
+        <v>0.05140828675360296</v>
+      </c>
+      <c r="F13">
+        <v>-0.03633808121554953</v>
+      </c>
+      <c r="G13">
+        <v>0.007826872150698452</v>
+      </c>
+      <c r="H13">
+        <v>0.1049867849850765</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01049963420154184</v>
+        <v>-0.008546120447425511</v>
       </c>
       <c r="C14">
-        <v>-0.01906064405677896</v>
+        <v>-0.02439589064574404</v>
       </c>
       <c r="D14">
-        <v>0.07743068779997861</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.08699586865371672</v>
+      </c>
+      <c r="E14">
+        <v>0.03816527025735247</v>
+      </c>
+      <c r="F14">
+        <v>0.007849573526844084</v>
+      </c>
+      <c r="G14">
+        <v>0.01015184535411837</v>
+      </c>
+      <c r="H14">
+        <v>0.1105847769225909</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.001851728539437248</v>
+        <v>-0.001640359181792625</v>
       </c>
       <c r="C15">
-        <v>-0.0007448148316300935</v>
+        <v>-0.01003203614725717</v>
       </c>
       <c r="D15">
-        <v>0.00356690426113714</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.03247370661312608</v>
+      </c>
+      <c r="E15">
+        <v>0.007028972089359118</v>
+      </c>
+      <c r="F15">
+        <v>0.0008976832913943156</v>
+      </c>
+      <c r="G15">
+        <v>0.009824809337765231</v>
+      </c>
+      <c r="H15">
+        <v>0.0113432962945615</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03463210044584715</v>
+        <v>-0.0283383584795001</v>
       </c>
       <c r="C16">
-        <v>-0.04198976079627674</v>
+        <v>-0.04490780464163995</v>
       </c>
       <c r="D16">
-        <v>0.06707966450473575</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06151023665380195</v>
+      </c>
+      <c r="E16">
+        <v>0.009225933833300181</v>
+      </c>
+      <c r="F16">
+        <v>0.006589715744685216</v>
+      </c>
+      <c r="G16">
+        <v>0.0006300085582809854</v>
+      </c>
+      <c r="H16">
+        <v>0.06187309504547468</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01036394514763235</v>
+        <v>-0.006776207548023442</v>
       </c>
       <c r="C19">
-        <v>-0.02489694658048928</v>
+        <v>-0.0205997111354343</v>
       </c>
       <c r="D19">
-        <v>0.1678526482956005</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.124208253368141</v>
+      </c>
+      <c r="E19">
+        <v>0.06418666912505082</v>
+      </c>
+      <c r="F19">
+        <v>0.005610138718836018</v>
+      </c>
+      <c r="G19">
+        <v>0.02009090219303213</v>
+      </c>
+      <c r="H19">
+        <v>0.06672201547202261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01958435576129602</v>
+        <v>-0.01553620199620258</v>
       </c>
       <c r="C20">
-        <v>-0.02450154544980461</v>
+        <v>-0.03302858166236523</v>
       </c>
       <c r="D20">
-        <v>0.08588458549964156</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.09825852308548046</v>
+      </c>
+      <c r="E20">
+        <v>0.05076642422217918</v>
+      </c>
+      <c r="F20">
+        <v>0.002816114522890073</v>
+      </c>
+      <c r="G20">
+        <v>-5.627105819337272e-05</v>
+      </c>
+      <c r="H20">
+        <v>0.06171661431135567</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01420955366677366</v>
+        <v>-0.01306371145806502</v>
       </c>
       <c r="C21">
-        <v>-0.03333286504172248</v>
+        <v>-0.03766927283669943</v>
       </c>
       <c r="D21">
-        <v>0.1259561388175789</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1379315738092461</v>
+      </c>
+      <c r="E21">
+        <v>0.08949420026999547</v>
+      </c>
+      <c r="F21">
+        <v>-0.002227037696883954</v>
+      </c>
+      <c r="G21">
+        <v>-0.02556179031661539</v>
+      </c>
+      <c r="H21">
+        <v>0.124646105204787</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.009033203647717834</v>
+        <v>-0.005421168552008985</v>
       </c>
       <c r="C22">
-        <v>-0.02970644329304238</v>
+        <v>-0.04162930893750105</v>
       </c>
       <c r="D22">
-        <v>0.08646979201122641</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1443566157894194</v>
+      </c>
+      <c r="E22">
+        <v>0.02968692123643581</v>
+      </c>
+      <c r="F22">
+        <v>-0.08961693365771005</v>
+      </c>
+      <c r="G22">
+        <v>0.07281594597245175</v>
+      </c>
+      <c r="H22">
+        <v>-0.05355475702956837</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.009156272559689961</v>
+        <v>-0.005525735747464887</v>
       </c>
       <c r="C23">
-        <v>-0.02963491369708036</v>
+        <v>-0.04210022746030469</v>
       </c>
       <c r="D23">
-        <v>0.08576456614537237</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1438116381107448</v>
+      </c>
+      <c r="E23">
+        <v>0.02997223598182576</v>
+      </c>
+      <c r="F23">
+        <v>-0.08958691040480343</v>
+      </c>
+      <c r="G23">
+        <v>0.07187867545916052</v>
+      </c>
+      <c r="H23">
+        <v>-0.05372291200680088</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03826318156401196</v>
+        <v>-0.02993135909678303</v>
       </c>
       <c r="C24">
-        <v>-0.0500390238860309</v>
+        <v>-0.05647871539529316</v>
       </c>
       <c r="D24">
-        <v>0.06444775805059702</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06499130586369287</v>
+      </c>
+      <c r="E24">
+        <v>0.01299904220591181</v>
+      </c>
+      <c r="F24">
+        <v>0.004864074167399256</v>
+      </c>
+      <c r="G24">
+        <v>-0.007550484486888033</v>
+      </c>
+      <c r="H24">
+        <v>0.07281787128123801</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.04194559315647294</v>
+        <v>-0.03454615464813082</v>
       </c>
       <c r="C25">
-        <v>-0.04750270692298322</v>
+        <v>-0.05368339542768251</v>
       </c>
       <c r="D25">
-        <v>0.064193045665745</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.0623530154858422</v>
+      </c>
+      <c r="E25">
+        <v>0.01287515965619183</v>
+      </c>
+      <c r="F25">
+        <v>-0.001749335405309299</v>
+      </c>
+      <c r="G25">
+        <v>-0.006868847907883013</v>
+      </c>
+      <c r="H25">
+        <v>0.05589937309223234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02044420509543786</v>
+        <v>-0.01832576852434262</v>
       </c>
       <c r="C26">
-        <v>-0.008981564989260012</v>
+        <v>-0.01760116670787223</v>
       </c>
       <c r="D26">
-        <v>0.05231425309040645</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.06282482998448903</v>
+      </c>
+      <c r="E26">
+        <v>0.02698276874637687</v>
+      </c>
+      <c r="F26">
+        <v>-0.004591060003883328</v>
+      </c>
+      <c r="G26">
+        <v>0.006026623330528742</v>
+      </c>
+      <c r="H26">
+        <v>0.06762696800322393</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1417050899060152</v>
+        <v>-0.2003016100835929</v>
       </c>
       <c r="C28">
-        <v>0.2745413928660279</v>
+        <v>0.25027021138238</v>
       </c>
       <c r="D28">
-        <v>-0.03198407539518777</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01266490121985584</v>
+      </c>
+      <c r="E28">
+        <v>0.07021063631568676</v>
+      </c>
+      <c r="F28">
+        <v>-0.005105989557633674</v>
+      </c>
+      <c r="G28">
+        <v>-0.06505485405223217</v>
+      </c>
+      <c r="H28">
+        <v>0.01013261564100936</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.006746580355019959</v>
+        <v>-0.006060592660014076</v>
       </c>
       <c r="C29">
-        <v>-0.01970370459946606</v>
+        <v>-0.02351446309465662</v>
       </c>
       <c r="D29">
-        <v>0.06169472777625302</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.08127473363773731</v>
+      </c>
+      <c r="E29">
+        <v>0.03426757986835019</v>
+      </c>
+      <c r="F29">
+        <v>-0.008076691266306786</v>
+      </c>
+      <c r="G29">
+        <v>-0.007915764137039101</v>
+      </c>
+      <c r="H29">
+        <v>0.1154260076832406</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.03981236160874008</v>
+        <v>-0.04078075034249144</v>
       </c>
       <c r="C30">
-        <v>-0.03846482861666679</v>
+        <v>-0.06084226644196192</v>
       </c>
       <c r="D30">
-        <v>0.1659281584565401</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1783997910948845</v>
+      </c>
+      <c r="E30">
+        <v>0.01902785367925469</v>
+      </c>
+      <c r="F30">
+        <v>-0.0094230753218682</v>
+      </c>
+      <c r="G30">
+        <v>0.02355341916789241</v>
+      </c>
+      <c r="H30">
+        <v>0.01095113303751277</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06940073663367816</v>
+        <v>-0.05509086949070039</v>
       </c>
       <c r="C31">
-        <v>-0.04952807562831201</v>
+        <v>-0.07245510940633806</v>
       </c>
       <c r="D31">
-        <v>0.06604238421101558</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.05520909618040867</v>
+      </c>
+      <c r="E31">
+        <v>0.03086460192187287</v>
+      </c>
+      <c r="F31">
+        <v>-0.03349803508386683</v>
+      </c>
+      <c r="G31">
+        <v>-0.02048218275864309</v>
+      </c>
+      <c r="H31">
+        <v>0.04563742276813916</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.006690250555178833</v>
+        <v>-0.01060888297995819</v>
       </c>
       <c r="C32">
-        <v>-0.01682655529141113</v>
+        <v>-0.01918538075196876</v>
       </c>
       <c r="D32">
-        <v>0.06172098343918368</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.09948884361864621</v>
+      </c>
+      <c r="E32">
+        <v>0.09013304702490478</v>
+      </c>
+      <c r="F32">
+        <v>-0.01936262790548494</v>
+      </c>
+      <c r="G32">
+        <v>-0.0248223764139171</v>
+      </c>
+      <c r="H32">
+        <v>0.09808171731145407</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02609891447349913</v>
+        <v>-0.02229572191029134</v>
       </c>
       <c r="C33">
-        <v>-0.02716856762341512</v>
+        <v>-0.04336660607699621</v>
       </c>
       <c r="D33">
-        <v>0.1310238168667593</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1312446900318408</v>
+      </c>
+      <c r="E33">
+        <v>0.04289506885438966</v>
+      </c>
+      <c r="F33">
+        <v>-0.01811149170732054</v>
+      </c>
+      <c r="G33">
+        <v>0.002088801887651244</v>
+      </c>
+      <c r="H33">
+        <v>0.07086748622103416</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03604994971838037</v>
+        <v>-0.02672627958347605</v>
       </c>
       <c r="C34">
-        <v>-0.06214648337013292</v>
+        <v>-0.06115896967245793</v>
       </c>
       <c r="D34">
-        <v>0.06826963698034026</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05547537708231602</v>
+      </c>
+      <c r="E34">
+        <v>-0.004112879574329774</v>
+      </c>
+      <c r="F34">
+        <v>0.01112092250824339</v>
+      </c>
+      <c r="G34">
+        <v>0.001071844534201035</v>
+      </c>
+      <c r="H34">
+        <v>0.07742868315987995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.0007813665694595344</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.0008066236295941884</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.00503858153728931</v>
+      </c>
+      <c r="E35">
+        <v>0.0005830038196905126</v>
+      </c>
+      <c r="F35">
+        <v>7.297210907773479e-05</v>
+      </c>
+      <c r="G35">
+        <v>0.001929704037782031</v>
+      </c>
+      <c r="H35">
+        <v>0.002673458673910476</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.0210799265271604</v>
+        <v>-0.01830204694161617</v>
       </c>
       <c r="C36">
-        <v>-0.003256708223778522</v>
+        <v>-0.01463024880188261</v>
       </c>
       <c r="D36">
-        <v>0.07270850621902925</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.07742829246015816</v>
+      </c>
+      <c r="E36">
+        <v>0.0344325838769514</v>
+      </c>
+      <c r="F36">
+        <v>0.0006740254241734267</v>
+      </c>
+      <c r="G36">
+        <v>-0.009850144195952726</v>
+      </c>
+      <c r="H36">
+        <v>0.06100783671552251</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.02241976514618255</v>
+        <v>-0.01972224880543488</v>
       </c>
       <c r="C38">
-        <v>-0.01398446924981626</v>
+        <v>-0.02082814829658701</v>
       </c>
       <c r="D38">
-        <v>0.05111015993576363</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.05861554545184815</v>
+      </c>
+      <c r="E38">
+        <v>0.03660514963688714</v>
+      </c>
+      <c r="F38">
+        <v>0.00297652134977051</v>
+      </c>
+      <c r="G38">
+        <v>0.03794210263995736</v>
+      </c>
+      <c r="H38">
+        <v>0.03887631101238833</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.04109455021168886</v>
+        <v>-0.03509448851882156</v>
       </c>
       <c r="C39">
-        <v>-0.05098052104580805</v>
+        <v>-0.06504085578639186</v>
       </c>
       <c r="D39">
-        <v>0.09044799214971813</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1043409132735722</v>
+      </c>
+      <c r="E39">
+        <v>0.007017052244238177</v>
+      </c>
+      <c r="F39">
+        <v>0.02516029436329062</v>
+      </c>
+      <c r="G39">
+        <v>0.002863542934180131</v>
+      </c>
+      <c r="H39">
+        <v>0.09046027043232245</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.02117726418155551</v>
+        <v>-0.01366728026609359</v>
       </c>
       <c r="C40">
-        <v>-0.04779722193910103</v>
+        <v>-0.0387313044378399</v>
       </c>
       <c r="D40">
-        <v>0.07575073927577951</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.08420415089262136</v>
+      </c>
+      <c r="E40">
+        <v>0.06348962613051029</v>
+      </c>
+      <c r="F40">
+        <v>-0.06539986371043391</v>
+      </c>
+      <c r="G40">
+        <v>0.06169225901382683</v>
+      </c>
+      <c r="H40">
+        <v>0.1636203692950099</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02573678867236158</v>
+        <v>-0.02351701426964637</v>
       </c>
       <c r="C41">
-        <v>0.006348243350798506</v>
+        <v>-0.008304361468964143</v>
       </c>
       <c r="D41">
-        <v>0.0660725262812224</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.05438884996882699</v>
+      </c>
+      <c r="E41">
+        <v>0.05291221947598396</v>
+      </c>
+      <c r="F41">
+        <v>-0.004568536567900323</v>
+      </c>
+      <c r="G41">
+        <v>0.01311954580864263</v>
+      </c>
+      <c r="H41">
+        <v>0.04797096183856305</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.03090058398788771</v>
+        <v>-0.02255212023658531</v>
       </c>
       <c r="C43">
-        <v>-0.005776838647102065</v>
+        <v>-0.01835373989603002</v>
       </c>
       <c r="D43">
-        <v>0.102615876018207</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.08366120618781982</v>
+      </c>
+      <c r="E43">
+        <v>0.03430821718252855</v>
+      </c>
+      <c r="F43">
+        <v>-0.004535537130338547</v>
+      </c>
+      <c r="G43">
+        <v>0.01213966709695037</v>
+      </c>
+      <c r="H43">
+        <v>0.07253517457413958</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.0178256000773099</v>
+        <v>-0.0171403154220237</v>
       </c>
       <c r="C44">
-        <v>-0.04830220963768884</v>
+        <v>-0.04354203362329916</v>
       </c>
       <c r="D44">
-        <v>0.07608661099181935</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.0980596616539425</v>
+      </c>
+      <c r="E44">
+        <v>0.06836618768865763</v>
+      </c>
+      <c r="F44">
+        <v>-0.009431194376111439</v>
+      </c>
+      <c r="G44">
+        <v>0.003740681977324554</v>
+      </c>
+      <c r="H44">
+        <v>0.07534686595658965</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02057064946566219</v>
+        <v>-0.01558735255336496</v>
       </c>
       <c r="C46">
-        <v>-0.01920470317564314</v>
+        <v>-0.02867691670294636</v>
       </c>
       <c r="D46">
-        <v>0.07234786110804453</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.08694140930819169</v>
+      </c>
+      <c r="E46">
+        <v>0.03933610614053192</v>
+      </c>
+      <c r="F46">
+        <v>0.01670484589489952</v>
+      </c>
+      <c r="G46">
+        <v>-0.01548407015314724</v>
+      </c>
+      <c r="H46">
+        <v>0.1148368344600771</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09614292089643213</v>
+        <v>-0.08147144765336831</v>
       </c>
       <c r="C47">
-        <v>-0.06119877969042226</v>
+        <v>-0.0894400234449233</v>
       </c>
       <c r="D47">
-        <v>0.04448476236204704</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.03297262440642396</v>
+      </c>
+      <c r="E47">
+        <v>0.03629326010193132</v>
+      </c>
+      <c r="F47">
+        <v>-0.02180587004850554</v>
+      </c>
+      <c r="G47">
+        <v>-0.04217436720526479</v>
+      </c>
+      <c r="H47">
+        <v>0.01614486774182739</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01716584449324818</v>
+        <v>-0.01626099934148848</v>
       </c>
       <c r="C48">
-        <v>-0.01490293262887156</v>
+        <v>-0.01971872301731437</v>
       </c>
       <c r="D48">
-        <v>0.06614574241378039</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.07288594362296122</v>
+      </c>
+      <c r="E48">
+        <v>0.04943674250236249</v>
+      </c>
+      <c r="F48">
+        <v>0.00173754674217588</v>
+      </c>
+      <c r="G48">
+        <v>-0.007009720032533803</v>
+      </c>
+      <c r="H48">
+        <v>0.0653666477190408</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.06396106998220705</v>
+        <v>-0.05316304708899073</v>
       </c>
       <c r="C50">
-        <v>-0.05108626534410473</v>
+        <v>-0.06691979705364949</v>
       </c>
       <c r="D50">
-        <v>0.06038130111298302</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.05389178676255656</v>
+      </c>
+      <c r="E50">
+        <v>0.04259988905443776</v>
+      </c>
+      <c r="F50">
+        <v>-0.04212427789427144</v>
+      </c>
+      <c r="G50">
+        <v>0.01157388123775407</v>
+      </c>
+      <c r="H50">
+        <v>0.04784982037651257</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.008949529132714882</v>
+        <v>-0.00941915096742918</v>
       </c>
       <c r="C51">
-        <v>-0.01908094749444874</v>
+        <v>-0.02001647653092965</v>
       </c>
       <c r="D51">
-        <v>0.08108528462436548</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.08863373928021677</v>
+      </c>
+      <c r="E51">
+        <v>0.01493845205817393</v>
+      </c>
+      <c r="F51">
+        <v>0.001058787826010035</v>
+      </c>
+      <c r="G51">
+        <v>0.01563455047769004</v>
+      </c>
+      <c r="H51">
+        <v>0.07585975437999634</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08768845249218066</v>
+        <v>-0.08518173645322834</v>
       </c>
       <c r="C53">
-        <v>-0.09254430820379407</v>
+        <v>-0.1028696702086081</v>
       </c>
       <c r="D53">
-        <v>0.01515344628009576</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.01018346155792607</v>
+      </c>
+      <c r="E53">
+        <v>0.1045549600971051</v>
+      </c>
+      <c r="F53">
+        <v>-0.04598323905490829</v>
+      </c>
+      <c r="G53">
+        <v>-0.08767079081731785</v>
+      </c>
+      <c r="H53">
+        <v>0.007289984517192033</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.03298456609693495</v>
+        <v>-0.02573294689030417</v>
       </c>
       <c r="C54">
-        <v>-0.03472031805952542</v>
+        <v>-0.03657759660570281</v>
       </c>
       <c r="D54">
-        <v>0.08731151357511539</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.08661987365958926</v>
+      </c>
+      <c r="E54">
+        <v>0.04307545122608879</v>
+      </c>
+      <c r="F54">
+        <v>0.01125965889347577</v>
+      </c>
+      <c r="G54">
+        <v>0.01971184256065235</v>
+      </c>
+      <c r="H54">
+        <v>0.1163197947362743</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09140276258744129</v>
+        <v>-0.08445884753179209</v>
       </c>
       <c r="C55">
-        <v>-0.06184689888200436</v>
+        <v>-0.08150561289015577</v>
       </c>
       <c r="D55">
-        <v>-0.006449169495504788</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.007861338247827048</v>
+      </c>
+      <c r="E55">
+        <v>0.0598168069579026</v>
+      </c>
+      <c r="F55">
+        <v>-0.04293846880289995</v>
+      </c>
+      <c r="G55">
+        <v>-0.04332484260110665</v>
+      </c>
+      <c r="H55">
+        <v>-0.004095029407109772</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1393160284747491</v>
+        <v>-0.1278667579894456</v>
       </c>
       <c r="C56">
-        <v>-0.09679213261222928</v>
+        <v>-0.1262273723212905</v>
       </c>
       <c r="D56">
-        <v>0.004732962184233754</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.008745864184147759</v>
+      </c>
+      <c r="E56">
+        <v>0.06283788317244797</v>
+      </c>
+      <c r="F56">
+        <v>-0.03544665824069513</v>
+      </c>
+      <c r="G56">
+        <v>-0.04611083450129872</v>
+      </c>
+      <c r="H56">
+        <v>-0.007254896123036392</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.01583724823011497</v>
+        <v>-0.02461501680894626</v>
       </c>
       <c r="C58">
-        <v>0.01886795659945624</v>
+        <v>-0.01820792199080887</v>
       </c>
       <c r="D58">
-        <v>0.3437385746270644</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3764074250750208</v>
+      </c>
+      <c r="E58">
+        <v>0.1919704611209302</v>
+      </c>
+      <c r="F58">
+        <v>-0.1446544890534291</v>
+      </c>
+      <c r="G58">
+        <v>0.2614535030390593</v>
+      </c>
+      <c r="H58">
+        <v>-0.40580183066484</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1364515532612376</v>
+        <v>-0.1782575801156525</v>
       </c>
       <c r="C59">
-        <v>0.1935857679051076</v>
+        <v>0.1677380852550455</v>
       </c>
       <c r="D59">
-        <v>0.03124684847128912</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.05255419057116809</v>
+      </c>
+      <c r="E59">
+        <v>0.01737801508802736</v>
+      </c>
+      <c r="F59">
+        <v>0.04130586030793405</v>
+      </c>
+      <c r="G59">
+        <v>0.0009108178242786563</v>
+      </c>
+      <c r="H59">
+        <v>-0.02506215105521464</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2477438925773252</v>
+        <v>-0.2267387057072036</v>
       </c>
       <c r="C60">
-        <v>-0.05458849606761126</v>
+        <v>-0.1049062367087532</v>
       </c>
       <c r="D60">
-        <v>0.1798519160472698</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1173579113640689</v>
+      </c>
+      <c r="E60">
+        <v>-0.361985217717963</v>
+      </c>
+      <c r="F60">
+        <v>-0.02622946996132701</v>
+      </c>
+      <c r="G60">
+        <v>-0.03120070996798804</v>
+      </c>
+      <c r="H60">
+        <v>-0.1123059055574791</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04788073313037949</v>
+        <v>-0.03987436197909668</v>
       </c>
       <c r="C61">
-        <v>-0.05475215232498697</v>
+        <v>-0.06192140437971626</v>
       </c>
       <c r="D61">
-        <v>0.0958717521566661</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.09210465412632979</v>
+      </c>
+      <c r="E61">
+        <v>0.003547872357335835</v>
+      </c>
+      <c r="F61">
+        <v>0.01621048398412121</v>
+      </c>
+      <c r="G61">
+        <v>-0.008541787775379372</v>
+      </c>
+      <c r="H61">
+        <v>0.07977497546773407</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.0178821894465542</v>
+        <v>-0.01378349241269081</v>
       </c>
       <c r="C63">
-        <v>-0.02410689233673249</v>
+        <v>-0.0335227094742586</v>
       </c>
       <c r="D63">
-        <v>0.0605478015294539</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.06766548418533816</v>
+      </c>
+      <c r="E63">
+        <v>0.03072188219378014</v>
+      </c>
+      <c r="F63">
+        <v>-0.01782919479616884</v>
+      </c>
+      <c r="G63">
+        <v>0.001930877881375239</v>
+      </c>
+      <c r="H63">
+        <v>0.05440345952222957</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.06099611070857509</v>
+        <v>-0.05306253201186027</v>
       </c>
       <c r="C64">
-        <v>-0.06206120536314386</v>
+        <v>-0.08218172497833771</v>
       </c>
       <c r="D64">
-        <v>0.05729312013555361</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05425125946694218</v>
+      </c>
+      <c r="E64">
+        <v>0.0266371802353264</v>
+      </c>
+      <c r="F64">
+        <v>0.01382195091309668</v>
+      </c>
+      <c r="G64">
+        <v>-0.05466090356743523</v>
+      </c>
+      <c r="H64">
+        <v>0.06248514545531968</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.0506842420224469</v>
+        <v>-0.04648101390691889</v>
       </c>
       <c r="C65">
-        <v>-0.0008184170768821154</v>
+        <v>-0.02529126029789193</v>
       </c>
       <c r="D65">
-        <v>0.111212153626896</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1156202184844285</v>
+      </c>
+      <c r="E65">
+        <v>0.001817690750229072</v>
+      </c>
+      <c r="F65">
+        <v>-0.01911920551165639</v>
+      </c>
+      <c r="G65">
+        <v>0.03138464419405015</v>
+      </c>
+      <c r="H65">
+        <v>-0.02162505851237645</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04675612017637632</v>
+        <v>-0.0395767988445167</v>
       </c>
       <c r="C66">
-        <v>-0.05776193710280261</v>
+        <v>-0.0754406047684338</v>
       </c>
       <c r="D66">
-        <v>0.1109843792167913</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1295677338755672</v>
+      </c>
+      <c r="E66">
+        <v>0.01375569239346335</v>
+      </c>
+      <c r="F66">
+        <v>0.01050192821373927</v>
+      </c>
+      <c r="G66">
+        <v>0.01383304202093668</v>
+      </c>
+      <c r="H66">
+        <v>0.05747531402984597</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.0416566082467919</v>
+        <v>-0.03698453026366812</v>
       </c>
       <c r="C67">
-        <v>-0.01908116445265618</v>
+        <v>-0.02682877048644526</v>
       </c>
       <c r="D67">
-        <v>0.02131688110323691</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01951733125944087</v>
+      </c>
+      <c r="E67">
+        <v>0.01593734166959676</v>
+      </c>
+      <c r="F67">
+        <v>-7.394433769429707e-05</v>
+      </c>
+      <c r="G67">
+        <v>0.03514033802990952</v>
+      </c>
+      <c r="H67">
+        <v>0.03776960501591976</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1561504961168704</v>
+        <v>-0.1966753793907983</v>
       </c>
       <c r="C68">
-        <v>0.2474185850964477</v>
+        <v>0.198995732980188</v>
       </c>
       <c r="D68">
-        <v>-0.02161122908264567</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01118400310028538</v>
+      </c>
+      <c r="E68">
+        <v>0.05398108422059752</v>
+      </c>
+      <c r="F68">
+        <v>-0.03057018221436086</v>
+      </c>
+      <c r="G68">
+        <v>0.01117983023971944</v>
+      </c>
+      <c r="H68">
+        <v>-0.002150215923235407</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08842941179937025</v>
+        <v>-0.07452419768360533</v>
       </c>
       <c r="C69">
-        <v>-0.07821349671023142</v>
+        <v>-0.0968165681407654</v>
       </c>
       <c r="D69">
-        <v>0.0643012409750775</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.04586383692752254</v>
+      </c>
+      <c r="E69">
+        <v>0.02513934152446921</v>
+      </c>
+      <c r="F69">
+        <v>-0.007494328702267863</v>
+      </c>
+      <c r="G69">
+        <v>-0.03161054896117773</v>
+      </c>
+      <c r="H69">
+        <v>0.03310321644425671</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1360741233470431</v>
+        <v>-0.1826629192751912</v>
       </c>
       <c r="C71">
-        <v>0.2419392810628657</v>
+        <v>0.2096269653417152</v>
       </c>
       <c r="D71">
-        <v>0.01608117190315566</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.03621685859313953</v>
+      </c>
+      <c r="E71">
+        <v>0.0527570042978875</v>
+      </c>
+      <c r="F71">
+        <v>-0.03472787191324908</v>
+      </c>
+      <c r="G71">
+        <v>-0.01730866345207382</v>
+      </c>
+      <c r="H71">
+        <v>0.02214694362193173</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09801758189952567</v>
+        <v>-0.09803949607858477</v>
       </c>
       <c r="C72">
-        <v>-0.03848837428347208</v>
+        <v>-0.06963528181651092</v>
       </c>
       <c r="D72">
-        <v>0.08582777837107364</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.09251729385753477</v>
+      </c>
+      <c r="E72">
+        <v>-0.03711428789719759</v>
+      </c>
+      <c r="F72">
+        <v>-0.03723477196762795</v>
+      </c>
+      <c r="G72">
+        <v>-0.03346366526133331</v>
+      </c>
+      <c r="H72">
+        <v>0.04039859878762409</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2706996098181047</v>
+        <v>-0.2417447402403077</v>
       </c>
       <c r="C73">
-        <v>0.002319971126883825</v>
+        <v>-0.08664393479028172</v>
       </c>
       <c r="D73">
-        <v>0.2956033477530349</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.1762349753513354</v>
+      </c>
+      <c r="E73">
+        <v>-0.6695454033054313</v>
+      </c>
+      <c r="F73">
+        <v>-0.009483183112524792</v>
+      </c>
+      <c r="G73">
+        <v>-0.01255264143267711</v>
+      </c>
+      <c r="H73">
+        <v>-0.1515547729399733</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.109960670527246</v>
+        <v>-0.09899649756438214</v>
       </c>
       <c r="C74">
-        <v>-0.07110025506572744</v>
+        <v>-0.09097276866141775</v>
       </c>
       <c r="D74">
-        <v>0.01396110757804653</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.004315842737550192</v>
+      </c>
+      <c r="E74">
+        <v>0.07628430306284961</v>
+      </c>
+      <c r="F74">
+        <v>-0.06310153969114878</v>
+      </c>
+      <c r="G74">
+        <v>-0.05987661106800118</v>
+      </c>
+      <c r="H74">
+        <v>-0.02844492106745099</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2528353698025219</v>
+        <v>-0.2278167095862267</v>
       </c>
       <c r="C75">
-        <v>-0.1182048803314328</v>
+        <v>-0.1676358052032971</v>
       </c>
       <c r="D75">
-        <v>-0.0671544697646113</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.09463565160772917</v>
+      </c>
+      <c r="E75">
+        <v>0.1032748717378906</v>
+      </c>
+      <c r="F75">
+        <v>-0.003972706889793721</v>
+      </c>
+      <c r="G75">
+        <v>-0.05133199846445418</v>
+      </c>
+      <c r="H75">
+        <v>-0.1156096975547155</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1439966675528498</v>
+        <v>-0.1270791966189984</v>
       </c>
       <c r="C76">
-        <v>-0.08591010372549129</v>
+        <v>-0.1149238417429451</v>
       </c>
       <c r="D76">
-        <v>-0.004477494474144546</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01224705118454106</v>
+      </c>
+      <c r="E76">
+        <v>0.1159133855555911</v>
+      </c>
+      <c r="F76">
+        <v>-0.02267704736806891</v>
+      </c>
+      <c r="G76">
+        <v>-0.04576053468578965</v>
+      </c>
+      <c r="H76">
+        <v>0.007158746843221065</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.06861200254994222</v>
+        <v>-0.06045529879918067</v>
       </c>
       <c r="C77">
-        <v>-0.05765221843221967</v>
+        <v>-0.07109004147859464</v>
       </c>
       <c r="D77">
-        <v>0.04511419916273691</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1299452328791752</v>
+      </c>
+      <c r="E77">
+        <v>0.2159568861193756</v>
+      </c>
+      <c r="F77">
+        <v>0.2417547509666445</v>
+      </c>
+      <c r="G77">
+        <v>0.2354788621197197</v>
+      </c>
+      <c r="H77">
+        <v>-0.407741231223004</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04378177996714253</v>
+        <v>-0.04288401419895146</v>
       </c>
       <c r="C78">
-        <v>-0.05104707193336944</v>
+        <v>-0.06658675769251325</v>
       </c>
       <c r="D78">
-        <v>0.1168767963252889</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1323413065312665</v>
+      </c>
+      <c r="E78">
+        <v>0.01661468870815394</v>
+      </c>
+      <c r="F78">
+        <v>-0.01087385838024031</v>
+      </c>
+      <c r="G78">
+        <v>-0.01442611707306172</v>
+      </c>
+      <c r="H78">
+        <v>0.02508614041941871</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.01589355274945675</v>
+        <v>-0.04546535639800253</v>
       </c>
       <c r="C79">
-        <v>-0.06621408322883056</v>
+        <v>-0.09055241225953682</v>
       </c>
       <c r="D79">
-        <v>-0.005367865326957171</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02275397103060912</v>
+      </c>
+      <c r="E79">
+        <v>0.1934619188184262</v>
+      </c>
+      <c r="F79">
+        <v>-0.1317498943062721</v>
+      </c>
+      <c r="G79">
+        <v>-0.7166780559447832</v>
+      </c>
+      <c r="H79">
+        <v>-0.3656955292518138</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.03412869843327615</v>
+        <v>-0.02603688709031669</v>
       </c>
       <c r="C80">
-        <v>-0.02868082655407574</v>
+        <v>-0.04407445215309167</v>
       </c>
       <c r="D80">
-        <v>0.02491443770932009</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03219887796848147</v>
+      </c>
+      <c r="E80">
+        <v>0.02073040650922319</v>
+      </c>
+      <c r="F80">
+        <v>0.03472801676784797</v>
+      </c>
+      <c r="G80">
+        <v>0.04810690314980381</v>
+      </c>
+      <c r="H80">
+        <v>0.02258809676503618</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1468309476803576</v>
+        <v>-0.1266742842864375</v>
       </c>
       <c r="C81">
-        <v>-0.08927810933653983</v>
+        <v>-0.1182377201001213</v>
       </c>
       <c r="D81">
-        <v>-0.05064237562614329</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.06560103734045386</v>
+      </c>
+      <c r="E81">
+        <v>0.1160361687999877</v>
+      </c>
+      <c r="F81">
+        <v>-0.02292877572231295</v>
+      </c>
+      <c r="G81">
+        <v>-0.0476486743122387</v>
+      </c>
+      <c r="H81">
+        <v>-0.01382472271369094</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.3129103486940166</v>
+        <v>-0.2507240634154465</v>
       </c>
       <c r="C82">
-        <v>-0.2665011646908841</v>
+        <v>-0.2653597820364522</v>
       </c>
       <c r="D82">
-        <v>-0.2347606778061221</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2321415572032302</v>
+      </c>
+      <c r="E82">
+        <v>-0.02024108151030811</v>
+      </c>
+      <c r="F82">
+        <v>-0.03674118184868981</v>
+      </c>
+      <c r="G82">
+        <v>-0.08640561426619615</v>
+      </c>
+      <c r="H82">
+        <v>0.4089297223077895</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03020719491323318</v>
+        <v>-0.02396060764977081</v>
       </c>
       <c r="C83">
-        <v>-0.04690551553085388</v>
+        <v>-0.05083434408751562</v>
       </c>
       <c r="D83">
-        <v>0.04803894145532818</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05127322211770392</v>
+      </c>
+      <c r="E83">
+        <v>0.01930768037886522</v>
+      </c>
+      <c r="F83">
+        <v>0.02259587442914045</v>
+      </c>
+      <c r="G83">
+        <v>0.0191566594864447</v>
+      </c>
+      <c r="H83">
+        <v>0.01563031388739586</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0002493475380487091</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.004732745178237871</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.01695925100169766</v>
+      </c>
+      <c r="E84">
+        <v>0.01536416095181367</v>
+      </c>
+      <c r="F84">
+        <v>-0.008735190387008769</v>
+      </c>
+      <c r="G84">
+        <v>0.007261377875391422</v>
+      </c>
+      <c r="H84">
+        <v>0.003660014800748164</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1814099599530418</v>
+        <v>-0.1585392125535618</v>
       </c>
       <c r="C85">
-        <v>-0.09233220262843182</v>
+        <v>-0.1340109065896591</v>
       </c>
       <c r="D85">
-        <v>-0.03724205563506169</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.06422338893437732</v>
+      </c>
+      <c r="E85">
+        <v>0.05007861228168903</v>
+      </c>
+      <c r="F85">
+        <v>-0.03759801683037665</v>
+      </c>
+      <c r="G85">
+        <v>-0.09269899266468828</v>
+      </c>
+      <c r="H85">
+        <v>-0.07963904266387484</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01753527288738953</v>
+        <v>-0.01907251266610956</v>
       </c>
       <c r="C86">
-        <v>-0.02199221482362329</v>
+        <v>-0.02250669186146932</v>
       </c>
       <c r="D86">
-        <v>0.1394967873749079</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1274410300209221</v>
+      </c>
+      <c r="E86">
+        <v>0.009540859064124576</v>
+      </c>
+      <c r="F86">
+        <v>0.01753286859337255</v>
+      </c>
+      <c r="G86">
+        <v>0.002111545934227584</v>
+      </c>
+      <c r="H86">
+        <v>0.05169385372952762</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03058815611177408</v>
+        <v>-0.03442608239085101</v>
       </c>
       <c r="C87">
-        <v>-0.000757304360062936</v>
+        <v>-0.02527485568092913</v>
       </c>
       <c r="D87">
-        <v>0.09928315152334453</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.13608376227435</v>
+      </c>
+      <c r="E87">
+        <v>0.08386184120443896</v>
+      </c>
+      <c r="F87">
+        <v>0.008477837642580081</v>
+      </c>
+      <c r="G87">
+        <v>0.01943110824105876</v>
+      </c>
+      <c r="H87">
+        <v>0.03292512809054737</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07714488452934264</v>
+        <v>-0.06788214802128897</v>
       </c>
       <c r="C88">
-        <v>-0.03654467482807462</v>
+        <v>-0.05704130346912937</v>
       </c>
       <c r="D88">
-        <v>0.03358742332500053</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01742527034805045</v>
+      </c>
+      <c r="E88">
+        <v>0.01911157601493826</v>
+      </c>
+      <c r="F88">
+        <v>-0.009816364257411317</v>
+      </c>
+      <c r="G88">
+        <v>-0.001680748931056925</v>
+      </c>
+      <c r="H88">
+        <v>0.04368520901141752</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1981695305144785</v>
+        <v>-0.2812974370794203</v>
       </c>
       <c r="C89">
-        <v>0.3855105328386074</v>
+        <v>0.3546141602091548</v>
       </c>
       <c r="D89">
-        <v>-0.02560900820399762</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0005880488911883428</v>
+      </c>
+      <c r="E89">
+        <v>0.05045699969838898</v>
+      </c>
+      <c r="F89">
+        <v>0.04746910296744732</v>
+      </c>
+      <c r="G89">
+        <v>-0.0458015878156633</v>
+      </c>
+      <c r="H89">
+        <v>0.08704430938333804</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1901501001192283</v>
+        <v>-0.2424079830960086</v>
       </c>
       <c r="C90">
-        <v>0.3006609893944947</v>
+        <v>0.2534044021402959</v>
       </c>
       <c r="D90">
-        <v>-0.02943191758197308</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01289799106215452</v>
+      </c>
+      <c r="E90">
+        <v>0.04384207782524036</v>
+      </c>
+      <c r="F90">
+        <v>-0.01241080489521578</v>
+      </c>
+      <c r="G90">
+        <v>0.04964613936895058</v>
+      </c>
+      <c r="H90">
+        <v>0.04026214861268633</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1873581985398795</v>
+        <v>-0.1592484180167848</v>
       </c>
       <c r="C91">
-        <v>-0.1356872831289357</v>
+        <v>-0.1589165161649261</v>
       </c>
       <c r="D91">
-        <v>-0.06629863213727942</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.08449439056815003</v>
+      </c>
+      <c r="E91">
+        <v>0.1081166599751858</v>
+      </c>
+      <c r="F91">
+        <v>-0.02608836518140605</v>
+      </c>
+      <c r="G91">
+        <v>-0.09089753473150226</v>
+      </c>
+      <c r="H91">
+        <v>-0.08953451659156446</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.164424950638042</v>
+        <v>-0.2234987333152679</v>
       </c>
       <c r="C92">
-        <v>0.2931374207901881</v>
+        <v>0.2699710243966155</v>
       </c>
       <c r="D92">
-        <v>0.00654033460640202</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03030421925845339</v>
+      </c>
+      <c r="E92">
+        <v>0.08886264421866312</v>
+      </c>
+      <c r="F92">
+        <v>0.01109918854475045</v>
+      </c>
+      <c r="G92">
+        <v>0.01049903057647892</v>
+      </c>
+      <c r="H92">
+        <v>0.03674775237003293</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2183135667587675</v>
+        <v>-0.2669608137991759</v>
       </c>
       <c r="C93">
-        <v>0.3246350731469575</v>
+        <v>0.2660913025202233</v>
       </c>
       <c r="D93">
-        <v>-0.006582084694330133</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.006435586393408495</v>
+      </c>
+      <c r="E93">
+        <v>0.01183503197375192</v>
+      </c>
+      <c r="F93">
+        <v>-0.0219725876917006</v>
+      </c>
+      <c r="G93">
+        <v>-0.003503288150643687</v>
+      </c>
+      <c r="H93">
+        <v>-0.003018229896385909</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.4003618715288247</v>
+        <v>-0.3382870138744383</v>
       </c>
       <c r="C94">
-        <v>-0.2040066189144185</v>
+        <v>-0.2664726244250613</v>
       </c>
       <c r="D94">
-        <v>-0.4612012908165217</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4307054928534653</v>
+      </c>
+      <c r="E94">
+        <v>0.09168312381780652</v>
+      </c>
+      <c r="F94">
+        <v>0.02191278822018621</v>
+      </c>
+      <c r="G94">
+        <v>0.480821035233486</v>
+      </c>
+      <c r="H94">
+        <v>-0.1226439000578743</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07696642235543942</v>
+        <v>-0.06606996553821179</v>
       </c>
       <c r="C95">
-        <v>-0.06907665941234334</v>
+        <v>-0.06607086313455249</v>
       </c>
       <c r="D95">
-        <v>0.1281750086370526</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09079040876836614</v>
+      </c>
+      <c r="E95">
+        <v>0.01707928334313825</v>
+      </c>
+      <c r="F95">
+        <v>0.9167672544459267</v>
+      </c>
+      <c r="G95">
+        <v>-0.1407438557156545</v>
+      </c>
+      <c r="H95">
+        <v>0.003692673256731512</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1718328269391068</v>
+        <v>-0.160948256105855</v>
       </c>
       <c r="C98">
-        <v>-0.01351994779889682</v>
+        <v>-0.06717398259050879</v>
       </c>
       <c r="D98">
-        <v>0.1695689923029085</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1330625981066572</v>
+      </c>
+      <c r="E98">
+        <v>-0.3178300856163283</v>
+      </c>
+      <c r="F98">
+        <v>-0.04520357729180299</v>
+      </c>
+      <c r="G98">
+        <v>-0.04615193643823678</v>
+      </c>
+      <c r="H98">
+        <v>-0.05509222087399569</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.006655243991061401</v>
+        <v>-0.006135805447625461</v>
       </c>
       <c r="C101">
-        <v>-0.01948440017335149</v>
+        <v>-0.02278687442562856</v>
       </c>
       <c r="D101">
-        <v>0.06239313040221553</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.08117651370427943</v>
+      </c>
+      <c r="E101">
+        <v>0.03472856308762569</v>
+      </c>
+      <c r="F101">
+        <v>-0.007345917144813674</v>
+      </c>
+      <c r="G101">
+        <v>-0.008595527174055406</v>
+      </c>
+      <c r="H101">
+        <v>0.1154259048363405</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1301486192424156</v>
+        <v>-0.1064220659040255</v>
       </c>
       <c r="C102">
-        <v>-0.1096133688092969</v>
+        <v>-0.1186952518632004</v>
       </c>
       <c r="D102">
-        <v>-0.03602399399605984</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05612829407393932</v>
+      </c>
+      <c r="E102">
+        <v>0.03163046147328202</v>
+      </c>
+      <c r="F102">
+        <v>0.02307136110686837</v>
+      </c>
+      <c r="G102">
+        <v>-0.03400009811665973</v>
+      </c>
+      <c r="H102">
+        <v>0.02414740277685212</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
